--- a/BiTech.Library/BiTech.Library/Tempalates/OutExportTTSach.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempalates/OutExportTTSach.xlsx
@@ -689,10 +689,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -702,10 +702,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
